--- a/Code/Results/Cases/Case_7_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980773399862141</v>
+        <v>0.9961101176679293</v>
       </c>
       <c r="D2">
-        <v>1.015289801250018</v>
+        <v>1.014296551143057</v>
       </c>
       <c r="E2">
-        <v>1.01057081003225</v>
+        <v>1.009199291223594</v>
       </c>
       <c r="F2">
-        <v>1.012964265006854</v>
+        <v>1.011417025901941</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040711372459533</v>
+        <v>1.04060593530576</v>
       </c>
       <c r="J2">
-        <v>1.0203157099521</v>
+        <v>1.018407800206756</v>
       </c>
       <c r="K2">
-        <v>1.026540156537403</v>
+        <v>1.025560241558646</v>
       </c>
       <c r="L2">
-        <v>1.021884815166294</v>
+        <v>1.020531935935054</v>
       </c>
       <c r="M2">
-        <v>1.024245893990758</v>
+        <v>1.02271956228934</v>
       </c>
       <c r="N2">
-        <v>1.021764675292076</v>
+        <v>1.019854056096055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005367138807541</v>
+        <v>1.000970387370037</v>
       </c>
       <c r="D3">
-        <v>1.020707845110464</v>
+        <v>1.017781612154617</v>
       </c>
       <c r="E3">
-        <v>1.016989063457595</v>
+        <v>1.013416012164916</v>
       </c>
       <c r="F3">
-        <v>1.020157338331012</v>
+        <v>1.016314158065783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04254403872473</v>
+        <v>1.041608174159004</v>
       </c>
       <c r="J3">
-        <v>1.025712551916474</v>
+        <v>1.021434633557929</v>
       </c>
       <c r="K3">
-        <v>1.031082447737009</v>
+        <v>1.028191919086158</v>
       </c>
       <c r="L3">
-        <v>1.027409084617446</v>
+        <v>1.023880062895338</v>
       </c>
       <c r="M3">
-        <v>1.03053863850265</v>
+        <v>1.026742466364904</v>
       </c>
       <c r="N3">
-        <v>1.027169181391069</v>
+        <v>1.022885187897771</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009945568519325</v>
+        <v>1.004048120404158</v>
       </c>
       <c r="D4">
-        <v>1.024112271687548</v>
+        <v>1.019989897388175</v>
       </c>
       <c r="E4">
-        <v>1.021026712267002</v>
+        <v>1.016092496608152</v>
       </c>
       <c r="F4">
-        <v>1.02468404811237</v>
+        <v>1.019423170759829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043681982995615</v>
+        <v>1.042231382298879</v>
       </c>
       <c r="J4">
-        <v>1.029098242343864</v>
+        <v>1.02334883865305</v>
       </c>
       <c r="K4">
-        <v>1.033928138631442</v>
+        <v>1.029852902940422</v>
       </c>
       <c r="L4">
-        <v>1.030877817805456</v>
+        <v>1.026000502918526</v>
       </c>
       <c r="M4">
-        <v>1.034493413831777</v>
+        <v>1.029292693535303</v>
       </c>
       <c r="N4">
-        <v>1.03055967988721</v>
+        <v>1.02480211138369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011838994593786</v>
+        <v>1.00532652591964</v>
       </c>
       <c r="D5">
-        <v>1.025520439352083</v>
+        <v>1.020907421900299</v>
       </c>
       <c r="E5">
-        <v>1.022698000558473</v>
+        <v>1.017205697728704</v>
       </c>
       <c r="F5">
-        <v>1.026558192920634</v>
+        <v>1.020716447342076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044149377605777</v>
+        <v>1.042487450085346</v>
       </c>
       <c r="J5">
-        <v>1.03049741543877</v>
+        <v>1.024143303132975</v>
       </c>
       <c r="K5">
-        <v>1.035103180421535</v>
+        <v>1.030541452014843</v>
       </c>
       <c r="L5">
-        <v>1.032312054837569</v>
+        <v>1.026881299259925</v>
       </c>
       <c r="M5">
-        <v>1.036129473968408</v>
+        <v>1.030352613074735</v>
       </c>
       <c r="N5">
-        <v>1.031960839968398</v>
+        <v>1.025597704094303</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012155121318729</v>
+        <v>1.005540285619656</v>
       </c>
       <c r="D6">
-        <v>1.025755558832536</v>
+        <v>1.021060852878414</v>
       </c>
       <c r="E6">
-        <v>1.022977125368552</v>
+        <v>1.017391918751687</v>
       </c>
       <c r="F6">
-        <v>1.026871222779118</v>
+        <v>1.020932803303284</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044227223391236</v>
+        <v>1.042530100958197</v>
       </c>
       <c r="J6">
-        <v>1.030730961406592</v>
+        <v>1.024276105026942</v>
       </c>
       <c r="K6">
-        <v>1.035299256950536</v>
+        <v>1.030656500359392</v>
       </c>
       <c r="L6">
-        <v>1.032551497484476</v>
+        <v>1.02702857581423</v>
       </c>
       <c r="M6">
-        <v>1.036402661306136</v>
+        <v>1.030529875953442</v>
       </c>
       <c r="N6">
-        <v>1.032194717598284</v>
+        <v>1.025730694582192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009970989436438</v>
+        <v>1.004065262536044</v>
       </c>
       <c r="D7">
-        <v>1.024131176729241</v>
+        <v>1.02000219951865</v>
       </c>
       <c r="E7">
-        <v>1.021049144936666</v>
+        <v>1.016107417788256</v>
       </c>
       <c r="F7">
-        <v>1.02470920189399</v>
+        <v>1.019440504909298</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043688270958542</v>
+        <v>1.042234827018677</v>
       </c>
       <c r="J7">
-        <v>1.029117031488391</v>
+        <v>1.023359494216853</v>
       </c>
       <c r="K7">
-        <v>1.033943921860871</v>
+        <v>1.029862141207927</v>
       </c>
       <c r="L7">
-        <v>1.030897074860674</v>
+        <v>1.02601231346667</v>
       </c>
       <c r="M7">
-        <v>1.034515377294719</v>
+        <v>1.029306903563284</v>
       </c>
       <c r="N7">
-        <v>1.030578495714478</v>
+        <v>1.024812782079615</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000570798947503</v>
+        <v>0.997766958559577</v>
       </c>
       <c r="D8">
-        <v>1.017142621474103</v>
+        <v>1.015484253896762</v>
       </c>
       <c r="E8">
-        <v>1.012764714668153</v>
+        <v>1.010635406583638</v>
       </c>
       <c r="F8">
-        <v>1.015422696071746</v>
+        <v>1.013084751180504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041340948953754</v>
+        <v>1.040949967111241</v>
       </c>
       <c r="J8">
-        <v>1.022162456488455</v>
+        <v>1.019440135496081</v>
       </c>
       <c r="K8">
-        <v>1.028095285798988</v>
+        <v>1.0264584877857</v>
       </c>
       <c r="L8">
-        <v>1.023774511877491</v>
+        <v>1.021673216208675</v>
       </c>
       <c r="M8">
-        <v>1.026397732311162</v>
+        <v>1.02409035086118</v>
       </c>
       <c r="N8">
-        <v>1.023614044420341</v>
+        <v>1.020887857419903</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9828544231502527</v>
+        <v>0.9861247356981836</v>
       </c>
       <c r="D9">
-        <v>1.003990451593216</v>
+        <v>1.007147531477875</v>
       </c>
       <c r="E9">
-        <v>0.9972089659947866</v>
+        <v>1.000572706114379</v>
       </c>
       <c r="F9">
-        <v>0.9979969966946335</v>
+        <v>1.001400962707624</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036814188683858</v>
+        <v>1.038485839601695</v>
       </c>
       <c r="J9">
-        <v>1.009027510713012</v>
+        <v>1.012177162750345</v>
       </c>
       <c r="K9">
-        <v>1.017019116583892</v>
+        <v>1.020125699680899</v>
       </c>
       <c r="L9">
-        <v>1.010347488668824</v>
+        <v>1.013656498390136</v>
       </c>
       <c r="M9">
-        <v>1.011122655038172</v>
+        <v>1.014471351089007</v>
       </c>
       <c r="N9">
-        <v>1.010460445515298</v>
+        <v>1.013614570419793</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9701258310396528</v>
+        <v>0.977953791335349</v>
       </c>
       <c r="D10">
-        <v>0.9945639485863216</v>
+        <v>1.001311497205708</v>
       </c>
       <c r="E10">
-        <v>0.9860787975304223</v>
+        <v>0.993548855508222</v>
       </c>
       <c r="F10">
-        <v>0.9855344088738142</v>
+        <v>0.9932466996108609</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033496867269247</v>
+        <v>1.036699265818673</v>
       </c>
       <c r="J10">
-        <v>0.9995769919176081</v>
+        <v>1.007070256430205</v>
       </c>
       <c r="K10">
-        <v>1.009032051204465</v>
+        <v>1.015657112471406</v>
       </c>
       <c r="L10">
-        <v>1.000704036484541</v>
+        <v>1.008035572511218</v>
       </c>
       <c r="M10">
-        <v>1.000169849960952</v>
+        <v>1.007738967004659</v>
       </c>
       <c r="N10">
-        <v>1.000996505899214</v>
+        <v>1.008500411706909</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643589725827256</v>
+        <v>0.974307833298778</v>
       </c>
       <c r="D11">
-        <v>0.9903011069010293</v>
+        <v>0.9987121731294023</v>
       </c>
       <c r="E11">
-        <v>0.9810488127480474</v>
+        <v>0.9904246560362056</v>
       </c>
       <c r="F11">
-        <v>0.9799029696499233</v>
+        <v>0.9896195720636703</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031979738324681</v>
+        <v>1.035889264629805</v>
       </c>
       <c r="J11">
-        <v>0.9952934842408937</v>
+        <v>1.004789921486665</v>
       </c>
       <c r="K11">
-        <v>1.005408277677607</v>
+        <v>1.013658416912853</v>
       </c>
       <c r="L11">
-        <v>0.9963371942548308</v>
+        <v>1.005529437056709</v>
       </c>
       <c r="M11">
-        <v>0.9952141061184921</v>
+        <v>1.004739939522228</v>
       </c>
       <c r="N11">
-        <v>0.9967069151502742</v>
+        <v>1.006216838426191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9621748346677879</v>
+        <v>0.9729363566884502</v>
       </c>
       <c r="D12">
-        <v>0.9886880384158087</v>
+        <v>0.9977352290253669</v>
       </c>
       <c r="E12">
-        <v>0.9791458323202314</v>
+        <v>0.9892510059205123</v>
       </c>
       <c r="F12">
-        <v>0.9777724877956521</v>
+        <v>0.9882569364089143</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031403132589608</v>
+        <v>1.035582713019925</v>
       </c>
       <c r="J12">
-        <v>0.9936710098262932</v>
+        <v>1.003931965064237</v>
       </c>
       <c r="K12">
-        <v>1.004035214724324</v>
+        <v>1.012905947478728</v>
       </c>
       <c r="L12">
-        <v>0.9946837763180086</v>
+        <v>1.004587078353557</v>
       </c>
       <c r="M12">
-        <v>0.993338291623161</v>
+        <v>1.003612626935263</v>
       </c>
       <c r="N12">
-        <v>0.9950821366359044</v>
+        <v>1.005357663607234</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626453085284256</v>
+        <v>0.9732313385300356</v>
       </c>
       <c r="D13">
-        <v>0.989035432068389</v>
+        <v>0.9979453142939446</v>
       </c>
       <c r="E13">
-        <v>0.9795556469900724</v>
+        <v>0.9895033669197162</v>
       </c>
       <c r="F13">
-        <v>0.9782312948221471</v>
+        <v>0.9885499365210569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031527424847756</v>
+        <v>1.035648730044939</v>
       </c>
       <c r="J13">
-        <v>0.9940205026768908</v>
+        <v>1.004116504258643</v>
       </c>
       <c r="K13">
-        <v>1.00433100303546</v>
+        <v>1.013067818370223</v>
       </c>
       <c r="L13">
-        <v>0.9950399065282546</v>
+        <v>1.004789746863614</v>
       </c>
       <c r="M13">
-        <v>0.9937422981544679</v>
+        <v>1.003855055508287</v>
       </c>
       <c r="N13">
-        <v>0.9954321258064371</v>
+        <v>1.005542464868463</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9641793125327229</v>
+        <v>0.9741948236427478</v>
       </c>
       <c r="D14">
-        <v>0.9901683905032853</v>
+        <v>0.9986316554906294</v>
       </c>
       <c r="E14">
-        <v>0.9808922367073064</v>
+        <v>0.9903279151622829</v>
       </c>
       <c r="F14">
-        <v>0.9797276743837188</v>
+        <v>0.9895072549073036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031932348613203</v>
+        <v>1.035864042153986</v>
       </c>
       <c r="J14">
-        <v>0.9951600268166266</v>
+        <v>1.004719229135974</v>
       </c>
       <c r="K14">
-        <v>1.005295345026282</v>
+        <v>1.013596425807805</v>
       </c>
       <c r="L14">
-        <v>0.996201178937746</v>
+        <v>1.005451779069652</v>
       </c>
       <c r="M14">
-        <v>0.9950597841636455</v>
+        <v>1.004647032134634</v>
       </c>
       <c r="N14">
-        <v>0.9965732682011568</v>
+        <v>1.006146045684253</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9651187687885638</v>
+        <v>0.9747861475859255</v>
       </c>
       <c r="D15">
-        <v>0.9908624347417315</v>
+        <v>0.9990529990511989</v>
       </c>
       <c r="E15">
-        <v>0.9817110702229516</v>
+        <v>0.990834176561031</v>
       </c>
       <c r="F15">
-        <v>0.9806444038395441</v>
+        <v>0.9900950272414099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032180072193895</v>
+        <v>1.035995943635022</v>
       </c>
       <c r="J15">
-        <v>0.9958578811145793</v>
+        <v>1.005089120569929</v>
       </c>
       <c r="K15">
-        <v>1.005885855423981</v>
+        <v>1.013920769483694</v>
       </c>
       <c r="L15">
-        <v>0.9969124338265291</v>
+        <v>1.005858140082807</v>
       </c>
       <c r="M15">
-        <v>0.9958667920018544</v>
+        <v>1.005133204238191</v>
       </c>
       <c r="N15">
-        <v>0.9972721135322574</v>
+        <v>1.006516462406473</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9705028736551438</v>
+        <v>0.9781934052101846</v>
       </c>
       <c r="D16">
-        <v>0.9948428416116418</v>
+        <v>1.001482434355459</v>
       </c>
       <c r="E16">
-        <v>0.9864079387410958</v>
+        <v>0.9937543914106525</v>
       </c>
       <c r="F16">
-        <v>0.9859029163369721</v>
+        <v>0.9934853168542549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033595775278997</v>
+        <v>1.036752238232971</v>
       </c>
       <c r="J16">
-        <v>0.9998570248306825</v>
+        <v>1.007220093065384</v>
       </c>
       <c r="K16">
-        <v>1.009268885054117</v>
+        <v>1.015788375268467</v>
       </c>
       <c r="L16">
-        <v>1.000989602696998</v>
+        <v>1.00820032301856</v>
       </c>
       <c r="M16">
-        <v>1.000494008022464</v>
+        <v>1.007936173741403</v>
       </c>
       <c r="N16">
-        <v>1.001276936491146</v>
+        <v>1.008650461127296</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9738093580794193</v>
+        <v>0.9803011241980235</v>
       </c>
       <c r="D17">
-        <v>0.9972895249861583</v>
+        <v>1.002986606781175</v>
       </c>
       <c r="E17">
-        <v>0.9892957993719537</v>
+        <v>0.9955634851602251</v>
       </c>
       <c r="F17">
-        <v>0.9891362458150247</v>
+        <v>0.9955855692392659</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034461566661303</v>
+        <v>1.037216751087884</v>
       </c>
       <c r="J17">
-        <v>1.002312589137005</v>
+        <v>1.008537930377723</v>
       </c>
       <c r="K17">
-        <v>1.011345246140749</v>
+        <v>1.016942471825954</v>
       </c>
       <c r="L17">
-        <v>1.00349415169761</v>
+        <v>1.009649752297498</v>
       </c>
       <c r="M17">
-        <v>1.003337475542231</v>
+        <v>1.009671444683475</v>
       </c>
       <c r="N17">
-        <v>1.003735987980441</v>
+        <v>1.009970169919777</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9757136177251675</v>
+        <v>0.981520182993292</v>
       </c>
       <c r="D18">
-        <v>0.9986993413335618</v>
+        <v>1.003857032235659</v>
       </c>
       <c r="E18">
-        <v>0.9909601458578216</v>
+        <v>0.9966107602539696</v>
       </c>
       <c r="F18">
-        <v>0.9909997644046702</v>
+        <v>0.9968013853938238</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034958851436277</v>
+        <v>1.037484196369207</v>
       </c>
       <c r="J18">
-        <v>1.003726609024836</v>
+        <v>1.009299984798005</v>
       </c>
       <c r="K18">
-        <v>1.012540563672006</v>
+        <v>1.017609518758739</v>
       </c>
       <c r="L18">
-        <v>1.004936764971552</v>
+        <v>1.010488253971521</v>
       </c>
       <c r="M18">
-        <v>1.004975683410335</v>
+        <v>1.010675560456242</v>
       </c>
       <c r="N18">
-        <v>1.005152015938702</v>
+        <v>1.010733306544744</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9763588947065224</v>
+        <v>0.9819341260460351</v>
       </c>
       <c r="D19">
-        <v>0.9991771885418455</v>
+        <v>1.00415266579665</v>
       </c>
       <c r="E19">
-        <v>0.991524321304701</v>
+        <v>0.9969665290231696</v>
       </c>
       <c r="F19">
-        <v>0.9916314681316182</v>
+        <v>0.9972144085346414</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035127130745608</v>
+        <v>1.037574801287294</v>
       </c>
       <c r="J19">
-        <v>1.004205729119961</v>
+        <v>1.009558719790051</v>
       </c>
       <c r="K19">
-        <v>1.012945520133477</v>
+        <v>1.0178359409167</v>
       </c>
       <c r="L19">
-        <v>1.005425638897827</v>
+        <v>1.010773004559931</v>
       </c>
       <c r="M19">
-        <v>1.005530905445357</v>
+        <v>1.011016596130429</v>
       </c>
       <c r="N19">
-        <v>1.005631816439319</v>
+        <v>1.010992408970156</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9734571482166946</v>
+        <v>0.9800760621660921</v>
       </c>
       <c r="D20">
-        <v>0.9970288243892251</v>
+        <v>1.002825944468374</v>
       </c>
       <c r="E20">
-        <v>0.9889880580113564</v>
+        <v>0.9953702128265572</v>
       </c>
       <c r="F20">
-        <v>0.988791683138847</v>
+        <v>0.9953611925221778</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034369480099755</v>
+        <v>1.03716727646816</v>
       </c>
       <c r="J20">
-        <v>1.002051037971787</v>
+        <v>1.008397227399294</v>
       </c>
       <c r="K20">
-        <v>1.01112412031183</v>
+        <v>1.016819284393151</v>
       </c>
       <c r="L20">
-        <v>1.003227342861632</v>
+        <v>1.009494962932322</v>
       </c>
       <c r="M20">
-        <v>1.003034522643143</v>
+        <v>1.009486103161881</v>
       </c>
       <c r="N20">
-        <v>1.003474065382567</v>
+        <v>1.009829267126979</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637287802593468</v>
+        <v>0.9739115846468216</v>
       </c>
       <c r="D21">
-        <v>0.9898356025044242</v>
+        <v>0.9984298657718202</v>
       </c>
       <c r="E21">
-        <v>0.9804996259986333</v>
+        <v>0.9900854764020551</v>
       </c>
       <c r="F21">
-        <v>0.9792881261734058</v>
+        <v>0.9892257800124395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031813477893321</v>
+        <v>1.035800796714619</v>
       </c>
       <c r="J21">
-        <v>0.994825354777348</v>
+        <v>1.00454204843871</v>
       </c>
       <c r="K21">
-        <v>1.005012135631043</v>
+        <v>1.013441046009875</v>
       </c>
       <c r="L21">
-        <v>0.9958601024557572</v>
+        <v>1.005257148849217</v>
       </c>
       <c r="M21">
-        <v>0.9946728105853889</v>
+        <v>1.00441418925009</v>
       </c>
       <c r="N21">
-        <v>0.9962381208891951</v>
+        <v>1.005968613370077</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.957366542895025</v>
+        <v>0.9699356350654038</v>
       </c>
       <c r="D22">
-        <v>0.9851398806874258</v>
+        <v>0.9955993723281916</v>
       </c>
       <c r="E22">
-        <v>0.9749605295058906</v>
+        <v>0.9866860700913243</v>
       </c>
       <c r="F22">
-        <v>0.9730868430138542</v>
+        <v>0.9852788462629768</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030130195126651</v>
+        <v>1.0349086504531</v>
       </c>
       <c r="J22">
-        <v>0.9900991008365927</v>
+        <v>1.002054542513484</v>
       </c>
       <c r="K22">
-        <v>1.001011581349999</v>
+        <v>1.01125851350661</v>
       </c>
       <c r="L22">
-        <v>0.9910448957683671</v>
+        <v>1.002525974357584</v>
       </c>
       <c r="M22">
-        <v>0.9892109964648705</v>
+        <v>1.001147683800465</v>
       </c>
       <c r="N22">
-        <v>0.9915051551257346</v>
+        <v>1.003477574901115</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9607639438871503</v>
+        <v>0.9720532031231774</v>
       </c>
       <c r="D23">
-        <v>0.9876464804615028</v>
+        <v>0.9971063794090439</v>
       </c>
       <c r="E23">
-        <v>0.9779171687989816</v>
+        <v>0.9884956902423233</v>
       </c>
       <c r="F23">
-        <v>0.9763969421636393</v>
+        <v>0.9873799773524485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031030111506171</v>
+        <v>1.035384795884606</v>
       </c>
       <c r="J23">
-        <v>0.9926229161842642</v>
+        <v>1.003379447321205</v>
       </c>
       <c r="K23">
-        <v>1.003148110565645</v>
+        <v>1.012421232013149</v>
       </c>
       <c r="L23">
-        <v>0.9936158692980571</v>
+        <v>1.003980361369334</v>
       </c>
       <c r="M23">
-        <v>0.992126903640735</v>
+        <v>1.002886937515461</v>
       </c>
       <c r="N23">
-        <v>0.994032554580686</v>
+        <v>1.004804361225632</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9736163716875961</v>
+        <v>0.9801777898851108</v>
       </c>
       <c r="D24">
-        <v>0.9971466770254661</v>
+        <v>1.00289856223437</v>
       </c>
       <c r="E24">
-        <v>0.989127174960283</v>
+        <v>0.995457568753789</v>
       </c>
       <c r="F24">
-        <v>0.9889474452376524</v>
+        <v>0.9954626071467558</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034411113829459</v>
+        <v>1.037189642711059</v>
       </c>
       <c r="J24">
-        <v>1.002169277947076</v>
+        <v>1.008460825427986</v>
       </c>
       <c r="K24">
-        <v>1.011224086185166</v>
+        <v>1.01687496636274</v>
       </c>
       <c r="L24">
-        <v>1.003347958484278</v>
+        <v>1.009564926941747</v>
       </c>
       <c r="M24">
-        <v>1.003171476647147</v>
+        <v>1.009569875804487</v>
       </c>
       <c r="N24">
-        <v>1.003592473272184</v>
+        <v>1.009892955472167</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9875847865796744</v>
+        <v>0.9892032948091329</v>
       </c>
       <c r="D25">
-        <v>1.007499012650501</v>
+        <v>1.009349818157058</v>
       </c>
       <c r="E25">
-        <v>1.00135510850289</v>
+        <v>1.003227202820798</v>
       </c>
       <c r="F25">
-        <v>1.002640419141891</v>
+        <v>1.00448278030024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038034289749044</v>
+        <v>1.03914750089982</v>
       </c>
       <c r="J25">
-        <v>1.012537319810892</v>
+        <v>1.014099555530819</v>
       </c>
       <c r="K25">
-        <v>1.019982020888888</v>
+        <v>1.021804703624244</v>
       </c>
       <c r="L25">
-        <v>1.013932424516971</v>
+        <v>1.01577562634645</v>
       </c>
       <c r="M25">
-        <v>1.015197883821547</v>
+        <v>1.017011903185389</v>
       </c>
       <c r="N25">
-        <v>1.013975238944677</v>
+        <v>1.015539693218517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961101176679293</v>
+        <v>0.996635417424151</v>
       </c>
       <c r="D2">
-        <v>1.014296551143057</v>
+        <v>1.014154678118504</v>
       </c>
       <c r="E2">
-        <v>1.009199291223594</v>
+        <v>1.012629062878722</v>
       </c>
       <c r="F2">
-        <v>1.011417025901941</v>
+        <v>1.021852362669481</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04060593530576</v>
+        <v>1.040608634303429</v>
       </c>
       <c r="J2">
-        <v>1.018407800206756</v>
+        <v>1.018917230408153</v>
       </c>
       <c r="K2">
-        <v>1.025560241558646</v>
+        <v>1.025420275965464</v>
       </c>
       <c r="L2">
-        <v>1.020531935935054</v>
+        <v>1.02391521453724</v>
       </c>
       <c r="M2">
-        <v>1.02271956228934</v>
+        <v>1.033015427810861</v>
       </c>
       <c r="N2">
-        <v>1.019854056096055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010209561320327</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.034701863328659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000970387370037</v>
+        <v>1.000297192076795</v>
       </c>
       <c r="D3">
-        <v>1.017781612154617</v>
+        <v>1.016612844165829</v>
       </c>
       <c r="E3">
-        <v>1.013416012164916</v>
+        <v>1.015508097010638</v>
       </c>
       <c r="F3">
-        <v>1.016314158065783</v>
+        <v>1.024714990527257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041608174159004</v>
+        <v>1.041182284592473</v>
       </c>
       <c r="J3">
-        <v>1.021434633557929</v>
+        <v>1.020779758613957</v>
       </c>
       <c r="K3">
-        <v>1.028191919086158</v>
+        <v>1.02703748322062</v>
       </c>
       <c r="L3">
-        <v>1.023880062895338</v>
+        <v>1.025946320864961</v>
       </c>
       <c r="M3">
-        <v>1.026742466364904</v>
+        <v>1.035041110798676</v>
       </c>
       <c r="N3">
-        <v>1.022885187897771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010842990511801</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036305066811571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004048120404158</v>
+        <v>1.002624793166385</v>
       </c>
       <c r="D4">
-        <v>1.019989897388175</v>
+        <v>1.01817670415748</v>
       </c>
       <c r="E4">
-        <v>1.016092496608152</v>
+        <v>1.017344383269943</v>
       </c>
       <c r="F4">
-        <v>1.019423170759829</v>
+        <v>1.026543060926589</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042231382298879</v>
+        <v>1.041536048618885</v>
       </c>
       <c r="J4">
-        <v>1.02334883865305</v>
+        <v>1.021961593950275</v>
       </c>
       <c r="K4">
-        <v>1.029852902940422</v>
+        <v>1.028060592537131</v>
       </c>
       <c r="L4">
-        <v>1.026000502918526</v>
+        <v>1.027237888415933</v>
       </c>
       <c r="M4">
-        <v>1.029292693535303</v>
+        <v>1.03633135095043</v>
       </c>
       <c r="N4">
-        <v>1.02480211138369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011244686778097</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037326210638627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00532652591964</v>
+        <v>1.003593589134175</v>
       </c>
       <c r="D5">
-        <v>1.020907421900299</v>
+        <v>1.018827884633914</v>
       </c>
       <c r="E5">
-        <v>1.017205697728704</v>
+        <v>1.018110144913381</v>
       </c>
       <c r="F5">
-        <v>1.020716447342076</v>
+        <v>1.027305934295501</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042487450085346</v>
+        <v>1.041680642440718</v>
       </c>
       <c r="J5">
-        <v>1.024143303132975</v>
+        <v>1.022452970510169</v>
       </c>
       <c r="K5">
-        <v>1.030541452014843</v>
+        <v>1.028485222750343</v>
       </c>
       <c r="L5">
-        <v>1.026881299259925</v>
+        <v>1.027775554870368</v>
       </c>
       <c r="M5">
-        <v>1.030352613074735</v>
+        <v>1.036868975591889</v>
       </c>
       <c r="N5">
-        <v>1.025597704094303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011411642784898</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.037751706253078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005540285619656</v>
+        <v>1.003755691813529</v>
       </c>
       <c r="D6">
-        <v>1.021060852878414</v>
+        <v>1.018936857070222</v>
       </c>
       <c r="E6">
-        <v>1.017391918751687</v>
+        <v>1.018238360007489</v>
       </c>
       <c r="F6">
-        <v>1.020932803303284</v>
+        <v>1.027433697357246</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042530100958197</v>
+        <v>1.041704679498113</v>
       </c>
       <c r="J6">
-        <v>1.024276105026942</v>
+        <v>1.022535157661228</v>
       </c>
       <c r="K6">
-        <v>1.030656500359392</v>
+        <v>1.028556201246295</v>
       </c>
       <c r="L6">
-        <v>1.02702857581423</v>
+        <v>1.027865523669805</v>
       </c>
       <c r="M6">
-        <v>1.030529875953442</v>
+        <v>1.03695896747165</v>
       </c>
       <c r="N6">
-        <v>1.025730694582192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011439564145282</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.037822929061501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004065262536044</v>
+        <v>1.002637776121375</v>
       </c>
       <c r="D7">
-        <v>1.02000219951865</v>
+        <v>1.01818542970909</v>
       </c>
       <c r="E7">
-        <v>1.016107417788256</v>
+        <v>1.017354639612736</v>
       </c>
       <c r="F7">
-        <v>1.019440504909298</v>
+        <v>1.026553276464885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042234827018677</v>
+        <v>1.041537996854592</v>
       </c>
       <c r="J7">
-        <v>1.023359494216853</v>
+        <v>1.021968181070931</v>
       </c>
       <c r="K7">
-        <v>1.029862141207927</v>
+        <v>1.028066287887538</v>
       </c>
       <c r="L7">
-        <v>1.02601231346667</v>
+        <v>1.027245093438162</v>
       </c>
       <c r="M7">
-        <v>1.029306903563284</v>
+        <v>1.036338553393417</v>
       </c>
       <c r="N7">
-        <v>1.024812782079615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011246925133295</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037331910914564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997766958559577</v>
+        <v>0.9978817623913764</v>
       </c>
       <c r="D8">
-        <v>1.015484253896762</v>
+        <v>1.014991045910546</v>
       </c>
       <c r="E8">
-        <v>1.010635406583638</v>
+        <v>1.013607663422343</v>
       </c>
       <c r="F8">
-        <v>1.013084751180504</v>
+        <v>1.022824916148308</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040949967111241</v>
+        <v>1.040806136992835</v>
       </c>
       <c r="J8">
-        <v>1.019440135496081</v>
+        <v>1.019551589159739</v>
       </c>
       <c r="K8">
-        <v>1.0264584877857</v>
+        <v>1.025971711743078</v>
       </c>
       <c r="L8">
-        <v>1.021673216208675</v>
+        <v>1.024606411847832</v>
       </c>
       <c r="M8">
-        <v>1.02409035086118</v>
+        <v>1.033704336704249</v>
       </c>
       <c r="N8">
-        <v>1.020887857419903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010425348896671</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.035247092749888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9861247356981836</v>
+        <v>0.9891675687565166</v>
       </c>
       <c r="D9">
-        <v>1.007147531477875</v>
+        <v>1.009151039048433</v>
       </c>
       <c r="E9">
-        <v>1.000572706114379</v>
+        <v>1.006793263774708</v>
       </c>
       <c r="F9">
-        <v>1.001400962707624</v>
+        <v>1.016062129597517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038485839601695</v>
+        <v>1.039380993943286</v>
       </c>
       <c r="J9">
-        <v>1.012177162750345</v>
+        <v>1.015108733803629</v>
       </c>
       <c r="K9">
-        <v>1.020125699680899</v>
+        <v>1.022097371486714</v>
       </c>
       <c r="L9">
-        <v>1.013656498390136</v>
+        <v>1.019777078192636</v>
       </c>
       <c r="M9">
-        <v>1.014471351089007</v>
+        <v>1.028899876342632</v>
       </c>
       <c r="N9">
-        <v>1.013614570419793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008913140902802</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031444646253484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.977953791335349</v>
+        <v>0.9831841082599803</v>
       </c>
       <c r="D10">
-        <v>1.001311497205708</v>
+        <v>1.00516067176213</v>
       </c>
       <c r="E10">
-        <v>0.993548855508222</v>
+        <v>1.00219240006512</v>
       </c>
       <c r="F10">
-        <v>0.9932466996108609</v>
+        <v>1.011560520618468</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036699265818673</v>
+        <v>1.038360030657628</v>
       </c>
       <c r="J10">
-        <v>1.007070256430205</v>
+        <v>1.012081164640166</v>
       </c>
       <c r="K10">
-        <v>1.015657112471406</v>
+        <v>1.019437369674292</v>
       </c>
       <c r="L10">
-        <v>1.008035572511218</v>
+        <v>1.016522182558231</v>
       </c>
       <c r="M10">
-        <v>1.007738967004659</v>
+        <v>1.025724136954739</v>
       </c>
       <c r="N10">
-        <v>1.008500411706909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007885143787492</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.028983262744654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.974307833298778</v>
+        <v>0.9811012799368494</v>
       </c>
       <c r="D11">
-        <v>0.9987121731294023</v>
+        <v>1.003839695612674</v>
       </c>
       <c r="E11">
-        <v>0.9904246560362056</v>
+        <v>1.000935613644093</v>
       </c>
       <c r="F11">
-        <v>0.9896195720636703</v>
+        <v>1.010752896409367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035889264629805</v>
+        <v>1.038086256600629</v>
       </c>
       <c r="J11">
-        <v>1.004789921486665</v>
+        <v>1.011281964377337</v>
       </c>
       <c r="K11">
-        <v>1.013658416912853</v>
+        <v>1.018689562364237</v>
       </c>
       <c r="L11">
-        <v>1.005529437056709</v>
+        <v>1.015839907205318</v>
       </c>
       <c r="M11">
-        <v>1.004739939522228</v>
+        <v>1.025474838452349</v>
       </c>
       <c r="N11">
-        <v>1.006216838426191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007644584099113</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029226885723339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9729363566884502</v>
+        <v>0.9805436442910876</v>
       </c>
       <c r="D12">
-        <v>0.9977352290253669</v>
+        <v>1.003521871529535</v>
       </c>
       <c r="E12">
-        <v>0.9892510059205123</v>
+        <v>1.000759632751451</v>
       </c>
       <c r="F12">
-        <v>0.9882569364089143</v>
+        <v>1.010885736724932</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035582713019925</v>
+        <v>1.038058146658847</v>
       </c>
       <c r="J12">
-        <v>1.003931965064237</v>
+        <v>1.011194883622411</v>
       </c>
       <c r="K12">
-        <v>1.012905947478728</v>
+        <v>1.01858190766211</v>
       </c>
       <c r="L12">
-        <v>1.004587078353557</v>
+        <v>1.015872293853052</v>
       </c>
       <c r="M12">
-        <v>1.003612626935263</v>
+        <v>1.025807313164858</v>
       </c>
       <c r="N12">
-        <v>1.005357663607234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007641160447306</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029819321306406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9732313385300356</v>
+        <v>0.9811216775019597</v>
       </c>
       <c r="D13">
-        <v>0.9979453142939446</v>
+        <v>1.003952983695546</v>
       </c>
       <c r="E13">
-        <v>0.9895033669197162</v>
+        <v>1.001404113898462</v>
       </c>
       <c r="F13">
-        <v>0.9885499365210569</v>
+        <v>1.011763185720092</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035648730044939</v>
+        <v>1.038220934085607</v>
       </c>
       <c r="J13">
-        <v>1.004116504258643</v>
+        <v>1.011651430504578</v>
       </c>
       <c r="K13">
-        <v>1.013067818370223</v>
+        <v>1.018961059805581</v>
       </c>
       <c r="L13">
-        <v>1.004789746863614</v>
+        <v>1.016460518974511</v>
       </c>
       <c r="M13">
-        <v>1.003855055508287</v>
+        <v>1.026625149939286</v>
       </c>
       <c r="N13">
-        <v>1.005542464868463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007820306841583</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03074483279321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9741948236427478</v>
+        <v>0.9820376133842337</v>
       </c>
       <c r="D14">
-        <v>0.9986316554906294</v>
+        <v>1.004591717201523</v>
       </c>
       <c r="E14">
-        <v>0.9903279151622829</v>
+        <v>1.00222234194536</v>
       </c>
       <c r="F14">
-        <v>0.9895072549073036</v>
+        <v>1.012709953034819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035864042153986</v>
+        <v>1.038420093651704</v>
       </c>
       <c r="J14">
-        <v>1.004719229135974</v>
+        <v>1.012213975611971</v>
       </c>
       <c r="K14">
-        <v>1.013596425807805</v>
+        <v>1.019444412814369</v>
       </c>
       <c r="L14">
-        <v>1.005451779069652</v>
+        <v>1.017119383512241</v>
       </c>
       <c r="M14">
-        <v>1.004647032134634</v>
+        <v>1.027412753688278</v>
       </c>
       <c r="N14">
-        <v>1.006146045684253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008027216001555</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.031541872581985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9747861475859255</v>
+        <v>0.9825103267496831</v>
       </c>
       <c r="D15">
-        <v>0.9990529990511989</v>
+        <v>1.004912356498666</v>
       </c>
       <c r="E15">
-        <v>0.990834176561031</v>
+        <v>1.002607852998971</v>
       </c>
       <c r="F15">
-        <v>0.9900950272414099</v>
+        <v>1.013118842286348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035995943635022</v>
+        <v>1.03851113287604</v>
       </c>
       <c r="J15">
-        <v>1.005089120569929</v>
+        <v>1.012473625583401</v>
       </c>
       <c r="K15">
-        <v>1.013920769483694</v>
+        <v>1.019670807725854</v>
       </c>
       <c r="L15">
-        <v>1.005858140082807</v>
+        <v>1.017409100910534</v>
       </c>
       <c r="M15">
-        <v>1.005133204238191</v>
+        <v>1.027726948262994</v>
       </c>
       <c r="N15">
-        <v>1.006516462406473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008118784369895</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.031827963597914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781934052101846</v>
+        <v>0.9849225490198874</v>
       </c>
       <c r="D16">
-        <v>1.001482434355459</v>
+        <v>1.006509136756111</v>
       </c>
       <c r="E16">
-        <v>0.9937543914106525</v>
+        <v>1.004427692354468</v>
       </c>
       <c r="F16">
-        <v>0.9934853168542549</v>
+        <v>1.014883278431858</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036752238232971</v>
+        <v>1.038922143671534</v>
       </c>
       <c r="J16">
-        <v>1.007220093065384</v>
+        <v>1.013668665546639</v>
       </c>
       <c r="K16">
-        <v>1.015788375268467</v>
+        <v>1.020725517523496</v>
       </c>
       <c r="L16">
-        <v>1.00820032301856</v>
+        <v>1.018681016823404</v>
       </c>
       <c r="M16">
-        <v>1.007936173741403</v>
+        <v>1.028953007347525</v>
       </c>
       <c r="N16">
-        <v>1.008650461127296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008519640971907</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032758090291785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9803011241980235</v>
+        <v>0.9862955740548548</v>
       </c>
       <c r="D17">
-        <v>1.002986606781175</v>
+        <v>1.007401572894003</v>
       </c>
       <c r="E17">
-        <v>0.9955634851602251</v>
+        <v>1.005397100386699</v>
       </c>
       <c r="F17">
-        <v>0.9955855692392659</v>
+        <v>1.015737024316636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037216751087884</v>
+        <v>1.03913083579529</v>
       </c>
       <c r="J17">
-        <v>1.008537930377723</v>
+        <v>1.014290774249551</v>
       </c>
       <c r="K17">
-        <v>1.016942471825954</v>
+        <v>1.021281058491092</v>
       </c>
       <c r="L17">
-        <v>1.009649752297498</v>
+        <v>1.019311156045667</v>
       </c>
       <c r="M17">
-        <v>1.009671444683475</v>
+        <v>1.029474640298772</v>
       </c>
       <c r="N17">
-        <v>1.009970169919777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008718628626394</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033040570308721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.981520182993292</v>
+        <v>0.986894671925711</v>
       </c>
       <c r="D18">
-        <v>1.003857032235659</v>
+        <v>1.007763112707352</v>
       </c>
       <c r="E18">
-        <v>0.9966107602539696</v>
+        <v>1.00569682280588</v>
       </c>
       <c r="F18">
-        <v>0.9968013853938238</v>
+        <v>1.015831118080158</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037484196369207</v>
+        <v>1.039183119542471</v>
       </c>
       <c r="J18">
-        <v>1.009299984798005</v>
+        <v>1.014462091881753</v>
       </c>
       <c r="K18">
-        <v>1.017609518758739</v>
+        <v>1.021449176790342</v>
       </c>
       <c r="L18">
-        <v>1.010488253971521</v>
+        <v>1.019417940909554</v>
       </c>
       <c r="M18">
-        <v>1.010675560456242</v>
+        <v>1.029382068704427</v>
       </c>
       <c r="N18">
-        <v>1.010733306544744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008756784134469</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03272801519848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9819341260460351</v>
+        <v>0.9867917070042301</v>
       </c>
       <c r="D19">
-        <v>1.00415266579665</v>
+        <v>1.007644968042109</v>
       </c>
       <c r="E19">
-        <v>0.9969665290231696</v>
+        <v>1.00538314698005</v>
       </c>
       <c r="F19">
-        <v>0.9972144085346414</v>
+        <v>1.01522415904054</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037574801287294</v>
+        <v>1.039096624608865</v>
       </c>
       <c r="J19">
-        <v>1.009558719790051</v>
+        <v>1.014225558731717</v>
       </c>
       <c r="K19">
-        <v>1.0178359409167</v>
+        <v>1.021269188816545</v>
       </c>
       <c r="L19">
-        <v>1.010773004559931</v>
+        <v>1.019045554424553</v>
       </c>
       <c r="M19">
-        <v>1.011016596130429</v>
+        <v>1.028722015378558</v>
       </c>
       <c r="N19">
-        <v>1.010992408970156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008651478176505</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.031877879635675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9800760621660921</v>
+        <v>0.984736002886004</v>
       </c>
       <c r="D20">
-        <v>1.002825944468374</v>
+        <v>1.006194885816948</v>
       </c>
       <c r="E20">
-        <v>0.9953702128265572</v>
+        <v>1.003384808708939</v>
       </c>
       <c r="F20">
-        <v>0.9953611925221778</v>
+        <v>1.012729070058427</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03716727646816</v>
+        <v>1.038629126459168</v>
       </c>
       <c r="J20">
-        <v>1.008397227399294</v>
+        <v>1.012868276590152</v>
       </c>
       <c r="K20">
-        <v>1.016819284393151</v>
+        <v>1.020129673296166</v>
       </c>
       <c r="L20">
-        <v>1.009494962932322</v>
+        <v>1.017368400310003</v>
       </c>
       <c r="M20">
-        <v>1.009486103161881</v>
+        <v>1.02655172694388</v>
       </c>
       <c r="N20">
-        <v>1.009829267126979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00815261278845</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.0296275495328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1326,93 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9739115846468216</v>
+        <v>0.9801399875377225</v>
       </c>
       <c r="D21">
-        <v>0.9984298657718202</v>
+        <v>1.003123321130017</v>
       </c>
       <c r="E21">
-        <v>0.9900854764020551</v>
+        <v>0.9997995660743397</v>
       </c>
       <c r="F21">
-        <v>0.9892257800124395</v>
+        <v>1.009142786070207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035800796714619</v>
+        <v>1.037809584774682</v>
       </c>
       <c r="J21">
-        <v>1.00454204843871</v>
+        <v>1.010492172009393</v>
       </c>
       <c r="K21">
-        <v>1.013441046009875</v>
+        <v>1.018045761855722</v>
       </c>
       <c r="L21">
-        <v>1.005257148849217</v>
+        <v>1.014784736733272</v>
       </c>
       <c r="M21">
-        <v>1.00441418925009</v>
+        <v>1.023952991404073</v>
       </c>
       <c r="N21">
-        <v>1.005968613370077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007340027252007</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027529457449039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9699356350654038</v>
+        <v>0.9772276568108873</v>
       </c>
       <c r="D22">
-        <v>0.9955993723281916</v>
+        <v>1.001184425558691</v>
       </c>
       <c r="E22">
-        <v>0.9866860700913243</v>
+        <v>0.997557078476676</v>
       </c>
       <c r="F22">
-        <v>0.9852788462629768</v>
+        <v>1.006928332451398</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0349086504531</v>
+        <v>1.037285300411054</v>
       </c>
       <c r="J22">
-        <v>1.002054542513484</v>
+        <v>1.009000942262129</v>
       </c>
       <c r="K22">
-        <v>1.01125851350661</v>
+        <v>1.016732455206887</v>
       </c>
       <c r="L22">
-        <v>1.002525974357584</v>
+        <v>1.013177085957996</v>
       </c>
       <c r="M22">
-        <v>1.001147683800465</v>
+        <v>1.022363775951828</v>
       </c>
       <c r="N22">
-        <v>1.003477574901115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00683159821697</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026271675640051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9720532031231774</v>
+        <v>0.9787770779386573</v>
       </c>
       <c r="D23">
-        <v>0.9971063794090439</v>
+        <v>1.002215591487237</v>
       </c>
       <c r="E23">
-        <v>0.9884956902423233</v>
+        <v>0.998749310752699</v>
       </c>
       <c r="F23">
-        <v>0.9873799773524485</v>
+        <v>1.008105417103116</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035384795884606</v>
+        <v>1.037565196103452</v>
       </c>
       <c r="J23">
-        <v>1.003379447321205</v>
+        <v>1.009794393625485</v>
       </c>
       <c r="K23">
-        <v>1.012421232013149</v>
+        <v>1.017431487374872</v>
       </c>
       <c r="L23">
-        <v>1.003980361369334</v>
+        <v>1.014032197804917</v>
       </c>
       <c r="M23">
-        <v>1.002886937515461</v>
+        <v>1.023208864110879</v>
       </c>
       <c r="N23">
-        <v>1.004804361225632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007102137099871</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.026940519482729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9801777898851108</v>
+        <v>0.9847566979215835</v>
       </c>
       <c r="D24">
-        <v>1.00289856223437</v>
+        <v>1.006202745234044</v>
       </c>
       <c r="E24">
-        <v>0.995457568753789</v>
+        <v>1.003368016405032</v>
       </c>
       <c r="F24">
-        <v>0.9954626071467558</v>
+        <v>1.012670748013201</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037189642711059</v>
+        <v>1.038623998145702</v>
       </c>
       <c r="J24">
-        <v>1.008460825427986</v>
+        <v>1.012854421418377</v>
       </c>
       <c r="K24">
-        <v>1.01687496636274</v>
+        <v>1.020121802329657</v>
       </c>
       <c r="L24">
-        <v>1.009564926941747</v>
+        <v>1.017336242937271</v>
       </c>
       <c r="M24">
-        <v>1.009569875804487</v>
+        <v>1.026478945831932</v>
       </c>
       <c r="N24">
-        <v>1.009892955472167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008145160847757</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029528614960291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9892032948091329</v>
+        <v>0.9914618569810947</v>
       </c>
       <c r="D25">
-        <v>1.009349818157058</v>
+        <v>1.010686759383294</v>
       </c>
       <c r="E25">
-        <v>1.003227202820798</v>
+        <v>1.008581167832729</v>
       </c>
       <c r="F25">
-        <v>1.00448278030024</v>
+        <v>1.017834398133781</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03914750089982</v>
+        <v>1.039765787999606</v>
       </c>
       <c r="J25">
-        <v>1.014099555530819</v>
+        <v>1.016280020296844</v>
       </c>
       <c r="K25">
-        <v>1.021804703624244</v>
+        <v>1.023121411800944</v>
       </c>
       <c r="L25">
-        <v>1.01577562634645</v>
+        <v>1.021047716879231</v>
       </c>
       <c r="M25">
-        <v>1.017011903185389</v>
+        <v>1.030162025645937</v>
       </c>
       <c r="N25">
-        <v>1.015539693218517</v>
+        <v>1.009311999453812</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032443564847182</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.996635417424151</v>
+        <v>0.9972317064984573</v>
       </c>
       <c r="D2">
-        <v>1.014154678118504</v>
+        <v>1.01462656268043</v>
       </c>
       <c r="E2">
-        <v>1.012629062878722</v>
+        <v>1.01311144433137</v>
       </c>
       <c r="F2">
-        <v>1.021852362669481</v>
+        <v>1.022240798173018</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040608634303429</v>
+        <v>1.040807413337722</v>
       </c>
       <c r="J2">
-        <v>1.018917230408153</v>
+        <v>1.019495533194732</v>
       </c>
       <c r="K2">
-        <v>1.025420275965464</v>
+        <v>1.025885818803893</v>
       </c>
       <c r="L2">
-        <v>1.02391521453724</v>
+        <v>1.024391088704944</v>
       </c>
       <c r="M2">
-        <v>1.033015427810861</v>
+        <v>1.033398740702838</v>
       </c>
       <c r="N2">
-        <v>1.010209561320327</v>
+        <v>1.012360739909635</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.034701863328659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03500523218342</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019047199563827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000297192076795</v>
+        <v>1.000750804162119</v>
       </c>
       <c r="D3">
-        <v>1.016612844165829</v>
+        <v>1.016889974496112</v>
       </c>
       <c r="E3">
-        <v>1.015508097010638</v>
+        <v>1.015875397279237</v>
       </c>
       <c r="F3">
-        <v>1.024714990527257</v>
+        <v>1.025010596647299</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041182284592473</v>
+        <v>1.041300114373022</v>
       </c>
       <c r="J3">
-        <v>1.020779758613957</v>
+        <v>1.021221022403935</v>
       </c>
       <c r="K3">
-        <v>1.02703748322062</v>
+        <v>1.027311211508822</v>
       </c>
       <c r="L3">
-        <v>1.025946320864961</v>
+        <v>1.026309100454677</v>
       </c>
       <c r="M3">
-        <v>1.035041110798676</v>
+        <v>1.035333159021192</v>
       </c>
       <c r="N3">
-        <v>1.010842990511801</v>
+        <v>1.01282778429565</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036305066811571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036536204716339</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019326485214277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002624793166385</v>
+        <v>1.00298877938489</v>
       </c>
       <c r="D4">
-        <v>1.01817670415748</v>
+        <v>1.018330802564921</v>
       </c>
       <c r="E4">
-        <v>1.017344383269943</v>
+        <v>1.017639296962597</v>
       </c>
       <c r="F4">
-        <v>1.026543060926589</v>
+        <v>1.026780323601957</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041536048618885</v>
+        <v>1.041602666982982</v>
       </c>
       <c r="J4">
-        <v>1.021961593950275</v>
+        <v>1.022316339646722</v>
       </c>
       <c r="K4">
-        <v>1.028060592537131</v>
+        <v>1.028212912597751</v>
       </c>
       <c r="L4">
-        <v>1.027237888415933</v>
+        <v>1.02752939240629</v>
       </c>
       <c r="M4">
-        <v>1.03633135095043</v>
+        <v>1.036565930538319</v>
       </c>
       <c r="N4">
-        <v>1.011244686778097</v>
+        <v>1.013124113455238</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037326210638627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037511865452369</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019500540397674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003593589134175</v>
+        <v>1.003920513375681</v>
       </c>
       <c r="D5">
-        <v>1.018827884633914</v>
+        <v>1.018930951228853</v>
       </c>
       <c r="E5">
-        <v>1.018110144913381</v>
+        <v>1.018375105430689</v>
       </c>
       <c r="F5">
-        <v>1.027305934295501</v>
+        <v>1.027519065142759</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.041680642440718</v>
+        <v>1.041726002273736</v>
       </c>
       <c r="J5">
-        <v>1.022452970510169</v>
+        <v>1.02277184217812</v>
       </c>
       <c r="K5">
-        <v>1.028485222750343</v>
+        <v>1.028587131388216</v>
       </c>
       <c r="L5">
-        <v>1.027775554870368</v>
+        <v>1.028037533958329</v>
       </c>
       <c r="M5">
-        <v>1.036868975591889</v>
+        <v>1.037079760537957</v>
       </c>
       <c r="N5">
-        <v>1.011411642784898</v>
+        <v>1.013247309719287</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.037751706253078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037918529024941</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019572138919178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003755691813529</v>
+        <v>1.00407642854819</v>
       </c>
       <c r="D6">
-        <v>1.018936857070222</v>
+        <v>1.019031395021808</v>
       </c>
       <c r="E6">
-        <v>1.018238360007489</v>
+        <v>1.018498318744092</v>
       </c>
       <c r="F6">
-        <v>1.027433697357246</v>
+        <v>1.027642799097779</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.041704679498113</v>
+        <v>1.041746485555242</v>
       </c>
       <c r="J6">
-        <v>1.022535157661228</v>
+        <v>1.022848034633259</v>
       </c>
       <c r="K6">
-        <v>1.028556201246295</v>
+        <v>1.028649681884803</v>
       </c>
       <c r="L6">
-        <v>1.027865523669805</v>
+        <v>1.028122570695883</v>
       </c>
       <c r="M6">
-        <v>1.03695896747165</v>
+        <v>1.037165778199266</v>
       </c>
       <c r="N6">
-        <v>1.011439564145282</v>
+        <v>1.013267914729131</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.037822929061501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037986606478269</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019584068888709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002637776121375</v>
+        <v>1.003008795682256</v>
       </c>
       <c r="D7">
-        <v>1.01818542970909</v>
+        <v>1.018344492589197</v>
       </c>
       <c r="E7">
-        <v>1.017354639612736</v>
+        <v>1.017655419752491</v>
       </c>
       <c r="F7">
-        <v>1.026553276464885</v>
+        <v>1.026795215098772</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041537996854592</v>
+        <v>1.041606796134931</v>
       </c>
       <c r="J7">
-        <v>1.021968181070931</v>
+        <v>1.022329785418916</v>
       </c>
       <c r="K7">
-        <v>1.028066287887538</v>
+        <v>1.028223515793063</v>
       </c>
       <c r="L7">
-        <v>1.027245093438162</v>
+        <v>1.027542397324339</v>
       </c>
       <c r="M7">
-        <v>1.036338553393417</v>
+        <v>1.036577757057203</v>
       </c>
       <c r="N7">
-        <v>1.011246925133295</v>
+        <v>1.013153633791455</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037331910914564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037521225388074</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019503098771176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9978817623913764</v>
+        <v>0.9984525096916371</v>
       </c>
       <c r="D8">
-        <v>1.014991045910546</v>
+        <v>1.015414026857059</v>
       </c>
       <c r="E8">
-        <v>1.013607663422343</v>
+        <v>1.01407009425383</v>
       </c>
       <c r="F8">
-        <v>1.022824916148308</v>
+        <v>1.023197069783411</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040806136992835</v>
+        <v>1.040984976825355</v>
       </c>
       <c r="J8">
-        <v>1.019551589159739</v>
+        <v>1.020105696781864</v>
       </c>
       <c r="K8">
-        <v>1.025971711743078</v>
+        <v>1.026389176101627</v>
       </c>
       <c r="L8">
-        <v>1.024606411847832</v>
+        <v>1.025062791234412</v>
       </c>
       <c r="M8">
-        <v>1.033704336704249</v>
+        <v>1.034071728819505</v>
       </c>
       <c r="N8">
-        <v>1.010425348896671</v>
+        <v>1.012604616450207</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.035247092749888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035537861055879</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019147941882292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891675687565166</v>
+        <v>0.9900881542270825</v>
       </c>
       <c r="D9">
-        <v>1.009151039048433</v>
+        <v>1.010045015726367</v>
       </c>
       <c r="E9">
-        <v>1.006793263774708</v>
+        <v>1.007537304746793</v>
       </c>
       <c r="F9">
-        <v>1.016062129597517</v>
+        <v>1.016661720207504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039380993943286</v>
+        <v>1.039755206989779</v>
       </c>
       <c r="J9">
-        <v>1.015108733803629</v>
+        <v>1.015995846898413</v>
       </c>
       <c r="K9">
-        <v>1.022097371486714</v>
+        <v>1.02297719504087</v>
       </c>
       <c r="L9">
-        <v>1.019777078192636</v>
+        <v>1.020509266735893</v>
       </c>
       <c r="M9">
-        <v>1.028899876342632</v>
+        <v>1.029490135248429</v>
       </c>
       <c r="N9">
-        <v>1.008913140902802</v>
+        <v>1.011500989072961</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031444646253484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031911802412412</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018465018356915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9831841082599803</v>
+        <v>0.9843840132495851</v>
       </c>
       <c r="D10">
-        <v>1.00516067176213</v>
+        <v>1.006406413748761</v>
       </c>
       <c r="E10">
-        <v>1.00219240006512</v>
+        <v>1.003161294787813</v>
       </c>
       <c r="F10">
-        <v>1.011560520618468</v>
+        <v>1.012341687561621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038360030657628</v>
+        <v>1.038880118718438</v>
       </c>
       <c r="J10">
-        <v>1.012081164640166</v>
+        <v>1.013231201704088</v>
       </c>
       <c r="K10">
-        <v>1.019437369674292</v>
+        <v>1.020660953854994</v>
       </c>
       <c r="L10">
-        <v>1.016522182558231</v>
+        <v>1.017473704707978</v>
       </c>
       <c r="M10">
-        <v>1.025724136954739</v>
+        <v>1.026491627962218</v>
       </c>
       <c r="N10">
-        <v>1.007885143787492</v>
+        <v>1.010871483443346</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.028983262744654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02959065133852</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017993983289584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9811012799368494</v>
+        <v>0.9824386597240218</v>
       </c>
       <c r="D11">
-        <v>1.003839695612674</v>
+        <v>1.005231187765386</v>
       </c>
       <c r="E11">
-        <v>1.000935613644093</v>
+        <v>1.00201469772153</v>
       </c>
       <c r="F11">
-        <v>1.010752896409367</v>
+        <v>1.011622133868826</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038086256600629</v>
+        <v>1.038666206805709</v>
       </c>
       <c r="J11">
-        <v>1.011281964377337</v>
+        <v>1.012560710342912</v>
       </c>
       <c r="K11">
-        <v>1.018689562364237</v>
+        <v>1.020055121262822</v>
       </c>
       <c r="L11">
-        <v>1.015839907205318</v>
+        <v>1.016898719546999</v>
       </c>
       <c r="M11">
-        <v>1.025474838452349</v>
+        <v>1.026328152301346</v>
       </c>
       <c r="N11">
-        <v>1.007644584099113</v>
+        <v>1.010942215166055</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029226885723339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029901847206114</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017900720636301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9805436442910876</v>
+        <v>0.9819200299427712</v>
       </c>
       <c r="D12">
-        <v>1.003521871529535</v>
+        <v>1.004950099866398</v>
       </c>
       <c r="E12">
-        <v>1.000759632751451</v>
+        <v>1.00186904703754</v>
       </c>
       <c r="F12">
-        <v>1.010885736724932</v>
+        <v>1.011778978379941</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038058146658847</v>
+        <v>1.038652444451357</v>
       </c>
       <c r="J12">
-        <v>1.011194883622411</v>
+        <v>1.01250977831714</v>
       </c>
       <c r="K12">
-        <v>1.01858190766211</v>
+        <v>1.019983074306591</v>
       </c>
       <c r="L12">
-        <v>1.015872293853052</v>
+        <v>1.016960526445943</v>
       </c>
       <c r="M12">
-        <v>1.025807313164858</v>
+        <v>1.02668393834815</v>
       </c>
       <c r="N12">
-        <v>1.007641160447306</v>
+        <v>1.011049580331865</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029819321306406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.0305124827506</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01790898988358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9811216775019597</v>
+        <v>0.9824530035354497</v>
       </c>
       <c r="D13">
-        <v>1.003952983695546</v>
+        <v>1.005327994347043</v>
       </c>
       <c r="E13">
-        <v>1.001404113898462</v>
+        <v>1.00247568121326</v>
       </c>
       <c r="F13">
-        <v>1.011763185720092</v>
+        <v>1.012625796950282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038220934085607</v>
+        <v>1.038791977236601</v>
       </c>
       <c r="J13">
-        <v>1.011651430504578</v>
+        <v>1.012923593280795</v>
       </c>
       <c r="K13">
-        <v>1.018961059805581</v>
+        <v>1.020310131894907</v>
       </c>
       <c r="L13">
-        <v>1.016460518974511</v>
+        <v>1.017511729218732</v>
       </c>
       <c r="M13">
-        <v>1.026625149939286</v>
+        <v>1.027471803751783</v>
       </c>
       <c r="N13">
-        <v>1.007820306841583</v>
+        <v>1.011156208494547</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03074483279321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031414124691676</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017994970509631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9820376133842337</v>
+        <v>0.9833002129081724</v>
       </c>
       <c r="D14">
-        <v>1.004591717201523</v>
+        <v>1.005889619985016</v>
       </c>
       <c r="E14">
-        <v>1.00222234194536</v>
+        <v>1.003237424152162</v>
       </c>
       <c r="F14">
-        <v>1.012709953034819</v>
+        <v>1.013527095763745</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038420093651704</v>
+        <v>1.038958287498771</v>
       </c>
       <c r="J14">
-        <v>1.012213975611971</v>
+        <v>1.013421285210582</v>
       </c>
       <c r="K14">
-        <v>1.019444412814369</v>
+        <v>1.02071813917958</v>
       </c>
       <c r="L14">
-        <v>1.017119383512241</v>
+        <v>1.018115433647208</v>
       </c>
       <c r="M14">
-        <v>1.027412753688278</v>
+        <v>1.028214981830351</v>
       </c>
       <c r="N14">
-        <v>1.008027216001555</v>
+        <v>1.011230874815177</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031541872581985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03217595888517</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018089903740348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9825103267496831</v>
+        <v>0.9837386949954248</v>
       </c>
       <c r="D15">
-        <v>1.004912356498666</v>
+        <v>1.006172465411504</v>
       </c>
       <c r="E15">
-        <v>1.002607852998971</v>
+        <v>1.003595066065961</v>
       </c>
       <c r="F15">
-        <v>1.013118842286348</v>
+        <v>1.013913575682354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.03851113287604</v>
+        <v>1.039033424751202</v>
       </c>
       <c r="J15">
-        <v>1.012473625583401</v>
+        <v>1.013648677363174</v>
       </c>
       <c r="K15">
-        <v>1.019670807725854</v>
+        <v>1.020907623345482</v>
       </c>
       <c r="L15">
-        <v>1.017409100910534</v>
+        <v>1.018377949163175</v>
       </c>
       <c r="M15">
-        <v>1.027726948262994</v>
+        <v>1.028507289987564</v>
       </c>
       <c r="N15">
-        <v>1.008118784369895</v>
+        <v>1.011252974668527</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.031827963597914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032444734397451</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018130908899946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9849225490198874</v>
+        <v>0.9859907825623053</v>
       </c>
       <c r="D16">
-        <v>1.006509136756111</v>
+        <v>1.007592165201902</v>
       </c>
       <c r="E16">
-        <v>1.004427692354468</v>
+        <v>1.005285669369073</v>
       </c>
       <c r="F16">
-        <v>1.014883278431858</v>
+        <v>1.015574105989566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.038922143671534</v>
+        <v>1.039370844239335</v>
       </c>
       <c r="J16">
-        <v>1.013668665546639</v>
+        <v>1.014692859418455</v>
       </c>
       <c r="K16">
-        <v>1.020725517523496</v>
+        <v>1.021789401506532</v>
       </c>
       <c r="L16">
-        <v>1.018681016823404</v>
+        <v>1.01952374149544</v>
       </c>
       <c r="M16">
-        <v>1.028953007347525</v>
+        <v>1.029631876513792</v>
       </c>
       <c r="N16">
-        <v>1.008519640971907</v>
+        <v>1.011324332945385</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032758090291785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.03329467414467</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018306638476261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9862955740548548</v>
+        <v>0.9872855086974128</v>
       </c>
       <c r="D17">
-        <v>1.007401572894003</v>
+        <v>1.008395583647773</v>
       </c>
       <c r="E17">
-        <v>1.005397100386699</v>
+        <v>1.006192382197951</v>
       </c>
       <c r="F17">
-        <v>1.015737024316636</v>
+        <v>1.016377445975223</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.03913083579529</v>
+        <v>1.039542950656061</v>
       </c>
       <c r="J17">
-        <v>1.014290774249551</v>
+        <v>1.015241209287773</v>
       </c>
       <c r="K17">
-        <v>1.021281058491092</v>
+        <v>1.022257991960621</v>
       </c>
       <c r="L17">
-        <v>1.019311156045667</v>
+        <v>1.020092700740276</v>
       </c>
       <c r="M17">
-        <v>1.029474640298772</v>
+        <v>1.030104286090747</v>
       </c>
       <c r="N17">
-        <v>1.008718628626394</v>
+        <v>1.011369075352495</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033040570308721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.033538297680225</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018392629960467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.986894671925711</v>
+        <v>0.9878587203245164</v>
       </c>
       <c r="D18">
-        <v>1.007763112707352</v>
+        <v>1.008727765221513</v>
       </c>
       <c r="E18">
-        <v>1.00569682280588</v>
+        <v>1.006472033473182</v>
       </c>
       <c r="F18">
-        <v>1.015831118080158</v>
+        <v>1.016455489242357</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039183119542471</v>
+        <v>1.03958374055126</v>
       </c>
       <c r="J18">
-        <v>1.014462091881753</v>
+        <v>1.01538838979618</v>
       </c>
       <c r="K18">
-        <v>1.021449176790342</v>
+        <v>1.022397527684269</v>
       </c>
       <c r="L18">
-        <v>1.019417940909554</v>
+        <v>1.020179978570581</v>
       </c>
       <c r="M18">
-        <v>1.029382068704427</v>
+        <v>1.029996098729571</v>
       </c>
       <c r="N18">
-        <v>1.008756784134469</v>
+        <v>1.011352903121392</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03272801519848</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.033213500988893</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018404855438023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9867917070042301</v>
+        <v>0.9877709194502435</v>
       </c>
       <c r="D19">
-        <v>1.007644968042109</v>
+        <v>1.008629280041728</v>
       </c>
       <c r="E19">
-        <v>1.00538314698005</v>
+        <v>1.006171638507127</v>
       </c>
       <c r="F19">
-        <v>1.01522415904054</v>
+        <v>1.015859443190695</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039096624608865</v>
+        <v>1.039506312850304</v>
       </c>
       <c r="J19">
-        <v>1.014225558731717</v>
+        <v>1.015166641526553</v>
       </c>
       <c r="K19">
-        <v>1.021269188816545</v>
+        <v>1.022236951483236</v>
       </c>
       <c r="L19">
-        <v>1.019045554424553</v>
+        <v>1.019820708578573</v>
       </c>
       <c r="M19">
-        <v>1.028722015378558</v>
+        <v>1.029346817916928</v>
       </c>
       <c r="N19">
-        <v>1.008651478176505</v>
+        <v>1.011262804462</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031877879635675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.032372046832642</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018350358176187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.984736002886004</v>
+        <v>0.985841684353913</v>
       </c>
       <c r="D20">
-        <v>1.006194885816948</v>
+        <v>1.007332715129214</v>
       </c>
       <c r="E20">
-        <v>1.003384808708939</v>
+        <v>1.004277264043364</v>
       </c>
       <c r="F20">
-        <v>1.012729070058427</v>
+        <v>1.013448667488735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038629126459168</v>
+        <v>1.039104130774317</v>
       </c>
       <c r="J20">
-        <v>1.012868276590152</v>
+        <v>1.013929510486453</v>
       </c>
       <c r="K20">
-        <v>1.020129673296166</v>
+        <v>1.021247841479804</v>
       </c>
       <c r="L20">
-        <v>1.017368400310003</v>
+        <v>1.018245317580435</v>
       </c>
       <c r="M20">
-        <v>1.02655172694388</v>
+        <v>1.027259089750892</v>
       </c>
       <c r="N20">
-        <v>1.00815261278845</v>
+        <v>1.010961713989801</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.0296275495328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.03018735980044</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018113083206273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9801399875377225</v>
+        <v>0.9815694877352825</v>
       </c>
       <c r="D21">
-        <v>1.003123321130017</v>
+        <v>1.00461691995893</v>
       </c>
       <c r="E21">
-        <v>0.9997995660743397</v>
+        <v>1.000956113322331</v>
       </c>
       <c r="F21">
-        <v>1.009142786070207</v>
+        <v>1.010074923348255</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037809584774682</v>
+        <v>1.038434081646597</v>
       </c>
       <c r="J21">
-        <v>1.010492172009393</v>
+        <v>1.01185851576554</v>
       </c>
       <c r="K21">
-        <v>1.018045761855722</v>
+        <v>1.019511348137214</v>
       </c>
       <c r="L21">
-        <v>1.014784736733272</v>
+        <v>1.015919394456293</v>
       </c>
       <c r="M21">
-        <v>1.023952991404073</v>
+        <v>1.02486790449751</v>
       </c>
       <c r="N21">
-        <v>1.007340027252007</v>
+        <v>1.0108164177944</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027529457449039</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.028253562782742</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017756782900331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9772276568108873</v>
+        <v>0.9788627061039301</v>
       </c>
       <c r="D22">
-        <v>1.001184425558691</v>
+        <v>1.002904104631785</v>
       </c>
       <c r="E22">
-        <v>0.997557078476676</v>
+        <v>0.9988812023604214</v>
       </c>
       <c r="F22">
-        <v>1.006928332451398</v>
+        <v>1.007995329734189</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037285300411054</v>
+        <v>1.038004739165214</v>
       </c>
       <c r="J22">
-        <v>1.009000942262129</v>
+        <v>1.010559510192387</v>
       </c>
       <c r="K22">
-        <v>1.016732455206887</v>
+        <v>1.0184182493391</v>
       </c>
       <c r="L22">
-        <v>1.013177085957996</v>
+        <v>1.014474855479499</v>
       </c>
       <c r="M22">
-        <v>1.022363775951828</v>
+        <v>1.023410044283869</v>
       </c>
       <c r="N22">
-        <v>1.00683159821697</v>
+        <v>1.010722614785781</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026271675640051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.027099743153348</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017531755260875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9787770779386573</v>
+        <v>0.9802901956784307</v>
       </c>
       <c r="D23">
-        <v>1.002215591487237</v>
+        <v>1.003805078752186</v>
       </c>
       <c r="E23">
-        <v>0.998749310752699</v>
+        <v>0.9999736960963628</v>
       </c>
       <c r="F23">
-        <v>1.008105417103116</v>
+        <v>1.009092242431818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037565196103452</v>
+        <v>1.038229761262121</v>
       </c>
       <c r="J23">
-        <v>1.009794393625485</v>
+        <v>1.011238828263969</v>
       </c>
       <c r="K23">
-        <v>1.017431487374872</v>
+        <v>1.018990457888712</v>
       </c>
       <c r="L23">
-        <v>1.014032197804917</v>
+        <v>1.015232850512236</v>
       </c>
       <c r="M23">
-        <v>1.023208864110879</v>
+        <v>1.024177016705615</v>
       </c>
       <c r="N23">
-        <v>1.007102137099871</v>
+        <v>1.01073017456297</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026940519482729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.027706761699416</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017648950541013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9847566979215835</v>
+        <v>0.9858621280509454</v>
       </c>
       <c r="D24">
-        <v>1.006202745234044</v>
+        <v>1.007340615833667</v>
       </c>
       <c r="E24">
-        <v>1.003368016405032</v>
+        <v>1.004260400128732</v>
       </c>
       <c r="F24">
-        <v>1.012670748013201</v>
+        <v>1.013390337892597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038623998145702</v>
+        <v>1.039099121770707</v>
       </c>
       <c r="J24">
-        <v>1.012854421418377</v>
+        <v>1.013915479376953</v>
       </c>
       <c r="K24">
-        <v>1.020121802329657</v>
+        <v>1.021240036787411</v>
       </c>
       <c r="L24">
-        <v>1.017336242937271</v>
+        <v>1.018213109181793</v>
       </c>
       <c r="M24">
-        <v>1.026478945831932</v>
+        <v>1.027186315115163</v>
       </c>
       <c r="N24">
-        <v>1.008145160847757</v>
+        <v>1.010951894429707</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029528614960291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.030088458788896</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01810870514504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9914618569810947</v>
+        <v>0.9922799677141982</v>
       </c>
       <c r="D25">
-        <v>1.010686759383294</v>
+        <v>1.011448944748598</v>
       </c>
       <c r="E25">
-        <v>1.008581167832729</v>
+        <v>1.009242573221086</v>
       </c>
       <c r="F25">
-        <v>1.017834398133781</v>
+        <v>1.018367274970708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039765787999606</v>
+        <v>1.040085255844268</v>
       </c>
       <c r="J25">
-        <v>1.016280020296844</v>
+        <v>1.017069964494871</v>
       </c>
       <c r="K25">
-        <v>1.023121411800944</v>
+        <v>1.023872092863404</v>
       </c>
       <c r="L25">
-        <v>1.021047716879231</v>
+        <v>1.021699084675012</v>
       </c>
       <c r="M25">
-        <v>1.030162025645937</v>
+        <v>1.030686999956366</v>
       </c>
       <c r="N25">
-        <v>1.009311999453812</v>
+        <v>1.011759066804931</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032443564847182</v>
+        <v>1.032859051405093</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018645884118039</v>
       </c>
     </row>
   </sheetData>
